--- a/resource/中醫-上海中醫藥大學/中醫 五版 上海科技.xlsx
+++ b/resource/中醫-上海中醫藥大學/中醫 五版 上海科技.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18280" windowHeight="12400"/>
+    <workbookView windowWidth="23270" windowHeight="14370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
     <t>经络学/李  鼎</t>
   </si>
   <si>
-    <t>針灸治療</t>
+    <t>針灸治療/杨长森</t>
   </si>
   <si>
     <t>针灸医籍选/靳  瑞</t>
@@ -120,11 +120,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="000000"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="000000"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -147,6 +147,42 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -155,38 +191,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -198,6 +207,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,84 +278,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -306,91 +306,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,85 +480,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -546,22 +546,41 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -614,32 +633,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -666,134 +666,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -812,13 +812,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -827,11 +824,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1155,7 +1152,7 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A$1:A$1048576"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -1180,7 +1177,7 @@
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="1">
@@ -1190,22 +1187,21 @@
         <v>9787532340309</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="7"/>
+    <row r="3" spans="1:2">
+      <c r="A3" s="5"/>
       <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3">
         <v>4</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="7">
         <v>22</v>
       </c>
       <c r="E4" s="2">
@@ -1214,13 +1210,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3"/>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="C5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="7">
         <v>12</v>
       </c>
       <c r="E5" s="2">
@@ -1229,13 +1225,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3"/>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="C6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="7">
         <v>27</v>
       </c>
       <c r="E6" s="2">
@@ -1244,13 +1240,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3"/>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="C7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="7">
         <v>21</v>
       </c>
       <c r="E7" s="2">
@@ -1258,8 +1254,8 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3">
@@ -1268,7 +1264,7 @@
       <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="1">
@@ -1283,7 +1279,7 @@
       <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="1">
@@ -1298,7 +1294,7 @@
       <c r="B11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="1">
@@ -1313,7 +1309,7 @@
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="1">
@@ -1328,7 +1324,7 @@
       <c r="B13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="1">
@@ -1339,20 +1335,20 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="9">
+      <c r="A15" s="8">
         <v>6</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="1">
+      <c r="C15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="7">
         <v>27</v>
       </c>
       <c r="E15" s="2">
@@ -1360,14 +1356,14 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="10"/>
-      <c r="B16" s="8" t="s">
+      <c r="A16" s="9"/>
+      <c r="B16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="1">
+      <c r="C16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="7">
         <v>18</v>
       </c>
       <c r="E16" s="2">
@@ -1375,11 +1371,11 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="10"/>
-      <c r="B17" s="5" t="s">
+      <c r="A17" s="9"/>
+      <c r="B17" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D17" s="1">
@@ -1389,46 +1385,48 @@
         <v>9787532302208</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="10"/>
-      <c r="B18" s="4" t="s">
+    <row r="18" spans="1:2">
+      <c r="A18" s="9"/>
+      <c r="B18" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="6"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="10"/>
-      <c r="B19" s="8" t="s">
+      <c r="A19" s="9"/>
+      <c r="B19" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" s="1">
+      <c r="C19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="7">
         <v>11</v>
       </c>
       <c r="E19" s="2">
         <v>9787532302253</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:4">
       <c r="A20" s="11"/>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="D20" s="7">
+        <v>24</v>
+      </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="9">
+      <c r="A22" s="8">
         <v>2</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D22" s="1">
@@ -1443,7 +1441,7 @@
       <c r="B23" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D23" s="1">
@@ -1454,8 +1452,8 @@
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="3">
@@ -1464,7 +1462,7 @@
       <c r="B25" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D25" s="1">
@@ -1476,10 +1474,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="3"/>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D26" s="1">
@@ -1494,7 +1492,7 @@
       <c r="B27" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D27" s="1">
@@ -1509,7 +1507,7 @@
       <c r="B28" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D28" s="1">
@@ -1524,7 +1522,7 @@
       <c r="B29" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D29" s="1">
@@ -1539,7 +1537,7 @@
       <c r="B30" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D30" s="1">
@@ -1554,7 +1552,7 @@
       <c r="B31" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D31" s="1">
@@ -1565,8 +1563,8 @@
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="3">
@@ -1575,7 +1573,7 @@
       <c r="B33" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D33" s="1">
@@ -1590,7 +1588,7 @@
       <c r="B34" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D34" s="1">
@@ -1605,7 +1603,7 @@
       <c r="B35" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D35" s="1">
@@ -1616,8 +1614,8 @@
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="3">
@@ -1635,7 +1633,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="3"/>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="5" t="s">
         <v>32</v>
       </c>
     </row>

--- a/resource/中醫-上海中醫藥大學/中醫 五版 上海科技.xlsx
+++ b/resource/中醫-上海中醫藥大學/中醫 五版 上海科技.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23270" windowHeight="14370"/>
+    <workbookView windowWidth="24620" windowHeight="18280"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -120,10 +120,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="000000"/>
   </numFmts>
   <fonts count="22">
@@ -147,15 +147,46 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -169,23 +200,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,44 +239,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -253,16 +255,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,23 +290,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -306,37 +306,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -348,103 +474,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,31 +486,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -547,21 +553,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -576,11 +567,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -635,6 +632,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -648,7 +654,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -666,22 +672,28 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -690,110 +702,104 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -816,6 +822,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1152,7 +1161,7 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -1240,7 +1249,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3"/>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -1339,7 +1348,7 @@
       <c r="B14" s="5"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="8">
+      <c r="A15" s="9">
         <v>6</v>
       </c>
       <c r="B15" s="6" t="s">
@@ -1356,7 +1365,7 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="9"/>
+      <c r="A16" s="10"/>
       <c r="B16" s="6" t="s">
         <v>13</v>
       </c>
@@ -1371,8 +1380,8 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="9"/>
-      <c r="B17" s="6" t="s">
+      <c r="A17" s="10"/>
+      <c r="B17" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -1386,13 +1395,13 @@
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="9"/>
-      <c r="B18" s="10" t="s">
+      <c r="A18" s="10"/>
+      <c r="B18" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="9"/>
+      <c r="A19" s="10"/>
       <c r="B19" s="6" t="s">
         <v>16</v>
       </c>
@@ -1407,7 +1416,7 @@
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="11"/>
+      <c r="A20" s="12"/>
       <c r="B20" s="6" t="s">
         <v>17</v>
       </c>
@@ -1420,7 +1429,7 @@
       <c r="B21" s="5"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="8">
+      <c r="A22" s="9">
         <v>2</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -1437,7 +1446,7 @@
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="11"/>
+      <c r="A23" s="12"/>
       <c r="B23" s="5" t="s">
         <v>19</v>
       </c>

--- a/resource/中醫-上海中醫藥大學/中醫 五版 上海科技.xlsx
+++ b/resource/中醫-上海中醫藥大學/中醫 五版 上海科技.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24620" windowHeight="18280"/>
+    <workbookView windowWidth="19720" windowHeight="13380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="51">
   <si>
     <t>醫古文</t>
   </si>
@@ -64,6 +64,15 @@
     <t>刺灸學</t>
   </si>
   <si>
+    <t>刺法灸法學</t>
+  </si>
+  <si>
+    <t>针法灸法学/奚永江 司徒鈴</t>
+  </si>
+  <si>
+    <t>《》，高等医药院校教材（五版教材）</t>
+  </si>
+  <si>
     <t>经络学/李  鼎</t>
   </si>
   <si>
@@ -113,20 +122,68 @@
   </si>
   <si>
     <t>藥理</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>zhi</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>欲購買紙書</t>
+  </si>
+  <si>
+    <t>已下電子</t>
+  </si>
+  <si>
+    <t>已買紙質</t>
+  </si>
+  <si>
+    <t>欲下載</t>
+  </si>
+  <si>
+    <t>停止出版</t>
+  </si>
+  <si>
+    <t>黄帝内经素问译释（第四版）</t>
+  </si>
+  <si>
+    <t>大32</t>
+  </si>
+  <si>
+    <t>黄帝内经灵枢译释（第三版）</t>
+  </si>
+  <si>
+    <t>金匮要略译释（第二版）</t>
+  </si>
+  <si>
+    <t>伤寒论译释（第四版）</t>
+  </si>
+  <si>
+    <t>难经译释</t>
+  </si>
+  <si>
+    <t>神农本草经译释</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="8">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ \￥* #,##0.00_ ;_ \￥* \-#,##0.00_ ;_ \￥* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ \￥* #,##0_ ;_ \￥* \-#,##0_ ;_ \￥* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="000000"/>
+    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="179" formatCode="000000"/>
+    <numFmt numFmtId="180" formatCode="0.00_ "/>
+    <numFmt numFmtId="181" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -145,6 +202,30 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -156,6 +237,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -163,7 +259,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,6 +297,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -185,13 +333,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -201,53 +342,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -256,7 +350,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,30 +362,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -312,85 +384,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,96 +564,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -552,6 +630,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -567,17 +660,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -599,9 +695,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -620,41 +742,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -663,150 +756,153 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -815,10 +911,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -833,14 +929,44 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="5" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="5" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="5" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="50">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -848,48 +974,49 @@
     <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
     <cellStyle name="Currency" xfId="5" builtinId="4"/>
     <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
     <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="15"/>
+    <cellStyle name="40% - Accent2" xfId="16" builtinId="35"/>
+    <cellStyle name="Title" xfId="17" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="18" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="19" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="20" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="21" builtinId="19"/>
+    <cellStyle name="Input" xfId="22" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="23" builtinId="40"/>
+    <cellStyle name="Good" xfId="24" builtinId="26"/>
+    <cellStyle name="Output" xfId="25" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="27" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="28" builtinId="24"/>
+    <cellStyle name="Total" xfId="29" builtinId="25"/>
+    <cellStyle name="Bad" xfId="30" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="31" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="32" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="33" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="34" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="35" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="36" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="37" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="38" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="39" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="40" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="41" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="42" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="43" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="44" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="45" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="46" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="47" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="48" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="49" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1158,13 +1285,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="3" width="32.625" style="1" customWidth="1"/>
@@ -1197,17 +1324,17 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="5"/>
+      <c r="A3" s="6"/>
       <c r="B3" s="5"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3">
         <v>4</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="7">
@@ -1219,10 +1346,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3"/>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="7">
@@ -1234,10 +1361,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3"/>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="7">
@@ -1263,7 +1390,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="5"/>
+      <c r="A8" s="6"/>
       <c r="B8" s="5"/>
     </row>
     <row r="9" spans="1:5">
@@ -1273,7 +1400,7 @@
       <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="1">
@@ -1288,7 +1415,7 @@
       <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="1">
@@ -1318,7 +1445,7 @@
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="1">
@@ -1344,14 +1471,14 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="5"/>
+      <c r="A14" s="6"/>
       <c r="B14" s="5"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="9">
         <v>6</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -1366,7 +1493,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="10"/>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -1381,7 +1508,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="10"/>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="11" t="s">
         <v>14</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -1394,172 +1521,173 @@
         <v>9787532302208</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:3">
       <c r="A18" s="10"/>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="12" t="s">
         <v>15</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="10"/>
-      <c r="B19" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" s="7">
+      <c r="B19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="2">
+        <v>9787532304950</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="10"/>
+      <c r="B20" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="7">
         <v>11</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E20" s="2">
         <v>9787532302253</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="12"/>
-      <c r="B20" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="7">
+    <row r="21" spans="1:4">
+      <c r="A21" s="13"/>
+      <c r="B21" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="9">
-        <v>2</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="1">
+    <row r="22" spans="1:2">
+      <c r="A22" s="6"/>
+      <c r="B22" s="5"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="9">
+        <v>2</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="1">
         <v>11.1</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E23" s="2">
         <v>9787532304967</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="12"/>
-      <c r="B23" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" s="1">
+    <row r="24" spans="1:5">
+      <c r="A24" s="13"/>
+      <c r="B24" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="1">
         <v>9.8</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E24" s="2">
         <v>9787532301171</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="3">
+    <row r="25" spans="1:2">
+      <c r="A25" s="6"/>
+      <c r="B25" s="5"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="3">
         <v>7</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25" s="1">
+      <c r="B26" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="1">
         <v>24</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E26" s="2">
         <v>9787532302260</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="3"/>
-      <c r="B26" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26" s="1">
-        <v>22</v>
-      </c>
-      <c r="E26" s="2">
-        <v>9787532303136</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="3"/>
       <c r="B27" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1">
         <v>22</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D27" s="1">
-        <v>13.2</v>
-      </c>
       <c r="E27" s="2">
-        <v>9787532304868</v>
+        <v>9787532303136</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="3"/>
       <c r="B28" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D28" s="1">
-        <v>11.8</v>
+        <v>13.2</v>
       </c>
       <c r="E28" s="2">
-        <v>9787532304875</v>
+        <v>9787532304868</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="3"/>
       <c r="B29" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D29" s="1">
-        <v>21</v>
+        <v>11.8</v>
       </c>
       <c r="E29" s="2">
-        <v>9787532304905</v>
+        <v>9787532304875</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="3"/>
       <c r="B30" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D30" s="1">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E30" s="2">
-        <v>9787532304929</v>
+        <v>9787532304905</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="3"/>
       <c r="B31" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>2</v>
@@ -1568,82 +1696,250 @@
         <v>15</v>
       </c>
       <c r="E31" s="2">
+        <v>9787532304929</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="3"/>
+      <c r="B32" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="1">
+        <v>15</v>
+      </c>
+      <c r="E32" s="2">
         <v>9787532304936</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="3">
+    <row r="33" spans="1:2">
+      <c r="A33" s="6"/>
+      <c r="B33" s="5"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="3">
         <v>3</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D33" s="1">
+      <c r="B34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="1">
         <v>22.1</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E34" s="2">
         <v>9787532302210</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="3"/>
-      <c r="B34" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D34" s="1">
-        <v>39</v>
-      </c>
-      <c r="E34" s="2">
-        <v>9787532303055</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="3"/>
-      <c r="B35" s="5" t="s">
-        <v>29</v>
+      <c r="B35" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D35" s="1">
+        <v>39</v>
+      </c>
+      <c r="E35" s="2">
+        <v>9787532303055</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="3"/>
+      <c r="B36" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" s="1">
         <v>12.2</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E36" s="2">
         <v>9787532304981</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-    </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="3">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="3">
         <v>3</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="3"/>
       <c r="B38" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C38" s="7"/>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="3"/>
-      <c r="B39" s="5" t="s">
-        <v>32</v>
+      <c r="B39" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="3"/>
+      <c r="B40" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4">
+      <c r="C41" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4">
+      <c r="B46" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4">
+      <c r="B47" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6">
+      <c r="B56" s="16">
+        <v>9787532399994</v>
+      </c>
+      <c r="C56" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D56" s="18">
+        <v>75</v>
+      </c>
+      <c r="E56" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F56" s="20">
+        <v>2009.11</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6">
+      <c r="B57" s="16">
+        <v>9787547809464</v>
+      </c>
+      <c r="C57" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D57" s="18">
+        <v>55</v>
+      </c>
+      <c r="E57" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F57" s="20">
+        <v>2011.09</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6">
+      <c r="B58" s="16">
+        <v>9787532399284</v>
+      </c>
+      <c r="C58" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D58" s="18">
+        <v>48</v>
+      </c>
+      <c r="E58" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F58" s="20">
+        <v>2010.03</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6">
+      <c r="B59" s="16">
+        <v>9787532399291</v>
+      </c>
+      <c r="C59" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D59" s="18">
+        <v>68</v>
+      </c>
+      <c r="E59" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F59" s="20">
+        <v>2009.12</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6">
+      <c r="B60" s="16">
+        <v>9787547828311</v>
+      </c>
+      <c r="C60" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D60" s="18">
+        <v>30</v>
+      </c>
+      <c r="E60" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F60" s="20">
+        <v>2016.01</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6">
+      <c r="B61" s="16">
+        <v>9787547838211</v>
+      </c>
+      <c r="C61" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D61" s="18">
+        <v>58</v>
+      </c>
+      <c r="E61" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F61" s="20">
+        <v>2018.01</v>
       </c>
     </row>
   </sheetData>
@@ -1654,11 +1950,11 @@
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A9:A13"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A25:A31"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="A15:A21"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A26:A32"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="A38:A40"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
